--- a/posesiones/1381306.xlsx
+++ b/posesiones/1381306.xlsx
@@ -1787,10 +1787,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>25</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>14</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>22</v>
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>12</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21">
         <v>12</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R23">
         <v>6</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25">
         <v>17</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27">
         <v>4</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R31">
         <v>16</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R36">
         <v>13</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3531,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R38">
         <v>6</v>
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R39">
         <v>23</v>
@@ -3637,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R40">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42">
         <v>5</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R46">
         <v>14</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48">
         <v>14</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4137,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>16</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4387,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R55">
         <v>15</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4772,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R63">
         <v>9</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R67">
         <v>21</v>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R68">
         <v>19</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5172,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R71">
         <v>18</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R73">
         <v>15</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R75">
         <v>13</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R79">
         <v>15</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R81">
         <v>21</v>
@@ -5722,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R82">
         <v>24</v>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5825,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R84">
         <v>10</v>
@@ -5878,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R85">
         <v>16</v>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R87">
         <v>8</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R94">
         <v>22</v>
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R95">
         <v>20</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6466,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R97">
         <v>7</v>
@@ -6519,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R98">
         <v>24</v>
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6619,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R100">
         <v>18</v>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6916,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R106">
         <v>19</v>
@@ -6969,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R107">
         <v>19</v>
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R108">
         <v>26</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R110">
         <v>2</v>
@@ -7169,10 +7169,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7401,10 +7401,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7454,7 +7454,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R117">
         <v>16</v>
@@ -7507,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7557,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R119">
         <v>22</v>
@@ -7610,7 +7610,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R120">
         <v>17</v>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7804,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R124">
         <v>12</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8095,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R130">
         <v>12</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8198,7 +8198,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R132">
         <v>12</v>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R134">
         <v>14</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8401,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R136">
         <v>14</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R145">
         <v>10</v>
@@ -8886,7 +8886,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R146">
         <v>9</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9124,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9224,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R153">
         <v>28</v>
@@ -9277,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R154">
         <v>13</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9380,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R156">
         <v>7</v>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R157">
         <v>23</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9674,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9724,7 +9724,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R163">
         <v>25</v>
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9824,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R165">
         <v>19</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9927,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R167">
         <v>10</v>
@@ -9980,7 +9980,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10030,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R169">
         <v>4</v>
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10174,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10274,7 +10274,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R174">
         <v>18</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10371,7 +10371,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R176">
         <v>21</v>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10468,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10518,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R179">
         <v>31</v>
@@ -10571,7 +10571,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R180">
         <v>19</v>
@@ -10624,7 +10624,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R181">
         <v>19</v>
@@ -10677,7 +10677,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R182">
         <v>25</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10827,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10968,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11206,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R193">
         <v>29</v>
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R194">
         <v>12</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11359,7 +11359,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R196">
         <v>22</v>
@@ -11412,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11462,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R198">
         <v>6</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11559,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11606,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11656,7 +11656,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R202">
         <v>24</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11803,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11991,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R210">
         <v>34</v>
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12144,7 +12144,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R212">
         <v>18</v>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12379,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12429,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R218">
         <v>14</v>
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12529,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R220">
         <v>6</v>
@@ -12579,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R222">
         <v>20</v>
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12732,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R224">
         <v>7</v>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R225">
         <v>6</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12876,10 +12876,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q227">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12926,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12973,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13067,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13114,7 +13114,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13161,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13208,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13302,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13390,10 +13390,10 @@
         <v>1</v>
       </c>
       <c r="P238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q238">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13440,7 +13440,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13487,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13534,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13587,7 +13587,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R242">
         <v>26</v>
@@ -13637,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13687,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R244">
         <v>19</v>
@@ -13740,7 +13740,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13790,7 +13790,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R246">
         <v>21</v>
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R247">
         <v>22</v>
@@ -13896,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13946,7 +13946,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R249">
         <v>14</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14049,7 +14049,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R251">
         <v>7</v>
@@ -14102,7 +14102,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14152,7 +14152,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R253">
         <v>22</v>
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14255,7 +14255,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R255">
         <v>10</v>
@@ -14308,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14355,7 +14355,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14449,7 +14449,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14499,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R260">
         <v>6</v>
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14599,7 +14599,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14649,7 +14649,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R263">
         <v>26</v>
@@ -14699,7 +14699,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14746,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14793,7 +14793,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14843,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R267">
         <v>19</v>
@@ -14896,7 +14896,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14943,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14990,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15037,7 +15037,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15087,7 +15087,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R272">
         <v>16</v>
@@ -15140,7 +15140,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R273">
         <v>15</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15237,7 +15237,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15381,7 +15381,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R278">
         <v>17</v>
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15484,7 +15484,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R280">
         <v>10</v>
@@ -15537,7 +15537,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R282">
         <v>14</v>
@@ -15640,7 +15640,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R284">
         <v>17</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R285">
         <v>22</v>
@@ -15793,7 +15793,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15840,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15887,7 +15887,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15937,7 +15937,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R289">
         <v>22</v>
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16034,7 +16034,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16081,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16222,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16269,7 +16269,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R296">
         <v>29</v>
@@ -16322,7 +16322,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R297">
         <v>19</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16416,7 +16416,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16463,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16510,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16560,7 +16560,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R302">
         <v>28</v>
@@ -16613,7 +16613,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R303">
         <v>19</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16713,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16810,7 +16810,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R307">
         <v>15</v>
@@ -16860,7 +16860,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16907,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16957,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R310">
         <v>0</v>
@@ -17007,7 +17007,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17054,7 +17054,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17104,7 +17104,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R313">
         <v>18</v>
@@ -17154,7 +17154,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17204,7 +17204,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R315">
         <v>25</v>
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17301,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17351,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17401,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R319">
         <v>26</v>
@@ -17451,7 +17451,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17498,7 +17498,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17545,7 +17545,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17592,7 +17592,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17639,7 +17639,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17686,7 +17686,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17733,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17830,7 +17830,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R328">
         <v>0</v>
@@ -17880,7 +17880,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17927,7 +17927,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17977,7 +17977,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R331">
         <v>24</v>
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18124,7 +18124,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18174,7 +18174,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R335">
         <v>30</v>
@@ -18224,7 +18224,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18274,7 +18274,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R337">
         <v>8</v>
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18374,7 +18374,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R339">
         <v>3</v>
@@ -18427,7 +18427,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R340">
         <v>17</v>
@@ -18477,7 +18477,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18524,7 +18524,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18571,7 +18571,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18618,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18665,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18712,7 +18712,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18759,7 +18759,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18806,7 +18806,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18853,7 +18853,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18900,7 +18900,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18950,7 +18950,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R351">
         <v>0</v>
@@ -19003,7 +19003,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R352">
         <v>10</v>
@@ -19059,7 +19059,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R353">
         <v>1</v>
@@ -19103,10 +19103,10 @@
         <v>1</v>
       </c>
       <c r="P354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q354">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19153,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19200,7 +19200,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19247,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19341,7 +19341,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19388,7 +19388,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19429,10 +19429,10 @@
         <v>1</v>
       </c>
       <c r="P361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q361">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19526,7 +19526,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19573,7 +19573,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19623,7 +19623,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R365">
         <v>21</v>
@@ -19676,7 +19676,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R366">
         <v>14</v>
@@ -19729,7 +19729,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R367">
         <v>29</v>
@@ -19782,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19832,7 +19832,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R369">
         <v>18</v>
@@ -19882,7 +19882,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19929,7 +19929,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19979,7 +19979,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R372">
         <v>0</v>
@@ -20032,7 +20032,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R373">
         <v>5</v>
@@ -20082,7 +20082,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20129,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20179,7 +20179,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20226,7 +20226,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20273,7 +20273,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20320,7 +20320,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20370,7 +20370,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R380">
         <v>30</v>
@@ -20423,7 +20423,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R381">
         <v>16</v>
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20526,7 +20526,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R383">
         <v>10</v>
@@ -20576,7 +20576,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20626,7 +20626,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R385">
         <v>22</v>
@@ -20679,7 +20679,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20726,7 +20726,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20773,7 +20773,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20820,7 +20820,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20867,7 +20867,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20914,7 +20914,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20961,7 +20961,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21008,7 +21008,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21058,7 +21058,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R394">
         <v>6</v>
@@ -21111,7 +21111,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R395">
         <v>17</v>
@@ -21164,7 +21164,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R396">
         <v>23</v>
@@ -21217,7 +21217,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21264,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21311,7 +21311,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21358,7 +21358,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21405,7 +21405,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21455,7 +21455,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R402">
         <v>15</v>
@@ -21502,7 +21502,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21549,7 +21549,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21596,7 +21596,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21646,7 +21646,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21693,7 +21693,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R407">
         <v>23</v>
@@ -21746,7 +21746,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R408">
         <v>19</v>
@@ -21799,7 +21799,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21849,7 +21849,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R410">
         <v>10</v>
@@ -21899,7 +21899,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21949,7 +21949,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21996,7 +21996,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22046,7 +22046,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22096,7 +22096,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R415">
         <v>16</v>
@@ -22149,7 +22149,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R416">
         <v>13</v>
@@ -22202,7 +22202,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22249,7 +22249,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22296,7 +22296,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22343,7 +22343,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22393,7 +22393,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22440,7 +22440,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22487,7 +22487,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22534,7 +22534,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22584,7 +22584,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R425">
         <v>33</v>
@@ -22637,7 +22637,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22687,7 +22687,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R427">
         <v>16</v>
@@ -22737,7 +22737,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22787,7 +22787,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R429">
         <v>21</v>
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22887,7 +22887,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22937,7 +22937,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23031,7 +23031,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23078,7 +23078,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23125,7 +23125,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23172,7 +23172,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23222,7 +23222,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R438">
         <v>26</v>
@@ -23275,7 +23275,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R439">
         <v>16</v>
@@ -23325,7 +23325,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23375,7 +23375,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23516,7 +23516,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23566,7 +23566,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R445">
         <v>25</v>
@@ -23616,7 +23616,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23666,7 +23666,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23716,7 +23716,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R448">
         <v>23</v>
@@ -23769,7 +23769,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R449">
         <v>19</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23872,7 +23872,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R451">
         <v>21</v>
@@ -23919,7 +23919,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23966,7 +23966,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24066,7 +24066,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R455">
         <v>12</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24163,7 +24163,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24304,7 +24304,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24398,7 +24398,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R463">
         <v>6</v>
@@ -24495,7 +24495,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24592,7 +24592,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24642,7 +24642,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R467">
         <v>8</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24786,7 +24786,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24836,7 +24836,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R471">
         <v>16</v>
@@ -24889,7 +24889,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R472">
         <v>7</v>
@@ -24939,7 +24939,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24986,7 +24986,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25033,7 +25033,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25083,7 +25083,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R476">
         <v>26</v>
@@ -25136,7 +25136,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R477">
         <v>5</v>
@@ -25186,7 +25186,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25233,7 +25233,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25330,7 +25330,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R481">
         <v>3</v>
@@ -25383,7 +25383,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R482">
         <v>6</v>
@@ -25427,10 +25427,10 @@
         <v>1</v>
       </c>
       <c r="P483" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q483">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25471,7 +25471,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
